--- a/inventories/lci-inventories_aegis.xlsx
+++ b/inventories/lci-inventories_aegis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\GitHub\stem_to_premise_advanced_geothermal\inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA94BD7-2A7D-47FD-8A28-985161C7FAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92631DE-E36E-4BDA-83D3-29313D6E9093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10148" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10028" uniqueCount="695">
   <si>
     <t>Activity</t>
   </si>
@@ -1946,188 +1946,186 @@
     <t>CO2, supercritical, pumped into geothermal well, per meter, without CO2 input and electricity</t>
   </si>
   <si>
-    <t>well construction, plasma pulse geothermal drilling, advanced geothermal system, 12000 m vertical 42000 m horizontal, per m</t>
-  </si>
-  <si>
-    <t>well, constructed, plasma pulse geothermal drilling, advanced geothermal system, 12000 m vertical 42000 m horizontal, per m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of a complete well with plasma pulse geothermal drilling technology. The vertical depth is 6 km for 1 production well and 1 injection well each, and the horizontal loop length is 42 km. PPGD is assumed to not require drilling mud (and thus no additives like bentonite etc.), and is dry (i.e. does not require water). 
+    <t>ags</t>
+  </si>
+  <si>
+    <t>market for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>Energy consumption for drilling, completion and logging. This is assumed to include cooling systems, pumping, drilling rig, etc. It is assumed that 98% of the energy need is covered by electricity, the rest from a backup diesel generator set.</t>
+  </si>
+  <si>
+    <t>Steel consumption for casing</t>
+  </si>
+  <si>
+    <t>market for cement, Portland</t>
+  </si>
+  <si>
+    <t>cement, Portland</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>No estimate availabe, technology not yet described, first estimate, known data gap.  Gas flow to cool the plasma generation equipment and to help lifting the rock debris/gases out of the borehole</t>
+  </si>
+  <si>
+    <t>dust collector production, multicyclone</t>
+  </si>
+  <si>
+    <t>dust collector, multicyclone</t>
+  </si>
+  <si>
+    <t>No estimate availabe, technology not yet described, first estimate, known data gap. Cyclone separator for initial gas treatment/particulate removal: infrastructure to separate the solid particles from the gas stream. Gas and dust control infrastructure which includes the following: gas scrubber (wet or dry), gas analysis equipment, containment and storage systems</t>
+  </si>
+  <si>
+    <t>No estimate availabe, technology not yet described, first estimate, known data gap. Energy use per m3 gas treated: depends on gas volume, composition, required treatment level</t>
+  </si>
+  <si>
+    <t>diesel, burned in diesel-electric generating set, 10MW, for oil and gas extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel generator used as backup in case of electricity shortage. It is assumed that 2% of the total energy needs to come from the diesel generator. I assume an efficiency of 40% for the generator. </t>
+  </si>
+  <si>
+    <t>market for drilling waste</t>
+  </si>
+  <si>
+    <t>drilling waste</t>
+  </si>
+  <si>
+    <t>Approximation for the treatment of the drilling waste. The dataset has been created for onshore and offshore oil/gas wells, thus the type of rock to be treated is (partially) different from the rock extracted for an AGS. The market for waste models a transport of 3 km with an unspecified lorry and 25 km with a freight train. This seems very little, but is left unchanged and generic, as the drilling sites and treatment sites of the AGS wells are still unknown.</t>
+  </si>
+  <si>
+    <t>drilling rig construction, plasma pulse geothermal drilling</t>
+  </si>
+  <si>
+    <t>drilling rig, plasma pulse geothermal drilling</t>
+  </si>
+  <si>
+    <t>Installation of the drilling place</t>
+  </si>
+  <si>
+    <t>Occupation, construction site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservative estimate only taking into account the actual drilling/completion/logging time, but neglecting any preparation and clean-up time. </t>
+  </si>
+  <si>
+    <t>Rough assumption. Assumption that the total drilling rig weight is 500 tons, and rough assumption that 70 weight% of it is made from steel, 30% from electronics. Assumption that the drilling rig can be reused for 50 drilling places.</t>
+  </si>
+  <si>
+    <t>market for electronics, for control units</t>
+  </si>
+  <si>
+    <t>electronics, for control units</t>
+  </si>
+  <si>
+    <t>market for reinforcing steel</t>
+  </si>
+  <si>
+    <t>reinforcing steel</t>
+  </si>
+  <si>
+    <t>market for sand</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>Reinforced concrete can be separated into cement/steel at the end of life. Assumption: 90% recycling rate for the reinforced steel.</t>
+  </si>
+  <si>
+    <t>market for inert waste, for final disposal</t>
+  </si>
+  <si>
+    <t>inert waste, for final disposal</t>
+  </si>
+  <si>
+    <t>market for electronics scrap from control units</t>
+  </si>
+  <si>
+    <t>electronics scrap from control units</t>
+  </si>
+  <si>
+    <t>well closure, advanced geothermal system, 12000 m vertical 42000 m horizontal, per m, without cement</t>
+  </si>
+  <si>
+    <t>well, closed, advanced geothermal system, 12000 m vertical 42000 m horizontal, per m, without cement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closing and backfilling of the well to prevent unwanted events and seal the borehole against fluids. </t>
+  </si>
+  <si>
+    <t>heat and power co-generation unit construction, 1MWel, 6.4 MWth</t>
+  </si>
+  <si>
+    <t>heat and power co-generation unit, 1MWel, 6.4MWth</t>
+  </si>
+  <si>
+    <t>Plain estimate. The building area is ca. 500 m2. Assumed that the surroundings take an additional 500 m2.</t>
+  </si>
+  <si>
+    <t>electricity production, advanced geothermal system plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity production with a hypothetical ags system. Maintenance and operation is neglected. </t>
+  </si>
+  <si>
+    <t>Reinjections of lost CO2. Assumed to be 5% of the total iniatial mass over the whole life.</t>
+  </si>
+  <si>
+    <t>aegis_additional_inventories</t>
+  </si>
+  <si>
+    <t>well construction, plasma pulse geothermal drilling, advanced geothermal system, 6000 m vertical, per m</t>
+  </si>
+  <si>
+    <t>well, constructed, plasma pulse geothermal drilling, advanced geothermal system, 6000 m vertical, per m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of a vertical well with plasma pulse geothermal drilling technology. The vertical depth is 6 km for 1 production well and 1 injection well each, and the horizontal loop length is 42 km. PPGD is assumed to not require drilling mud (and thus no additives like bentonite etc.), and is dry (i.e. does not require water). 
 This dataset is based on little technological knowledge on PPGD as this is a technology which doesn't exist yet. It neglects the removal and eventual treatment of substances from the well drilling, e.g. CO2 from carbonate rocks, metal oxides, trace elements, solid residues; in case of wet scrubbers: slurry with dissolved minerals/suspended particles; radioactive materials; water use for cooling or dust suppression; dust collection/gas flow control. No assumptions on the exchange rate of the PPGD equipment in the borehole could be taken. </t>
   </si>
   <si>
-    <t>ags</t>
-  </si>
-  <si>
-    <t>market for electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>Energy consumption for drilling, completion and logging. This is assumed to include cooling systems, pumping, drilling rig, etc. It is assumed that 98% of the energy need is covered by electricity, the rest from a backup diesel generator set.</t>
-  </si>
-  <si>
-    <t>Steel consumption for casing</t>
-  </si>
-  <si>
-    <t>market for cement, Portland</t>
-  </si>
-  <si>
-    <t>cement, Portland</t>
-  </si>
-  <si>
-    <t>Cement consumption for casing, cement slurry</t>
-  </si>
-  <si>
-    <t>Water consumption for casing, cement slurry. Water can be potable water, or surface water/groundwater which is tested for minerals/pollutants before use. Not all drilling places may have access to surface/groundwater! I use tap water as a proxy to at least account for some transport/conditioning of the water.</t>
-  </si>
-  <si>
-    <t>market for nitrogen, liquid</t>
-  </si>
-  <si>
-    <t>nitrogen, liquid</t>
-  </si>
-  <si>
-    <t>No estimate availabe, technology not yet described, first estimate, known data gap.  Gas flow to cool the plasma generation equipment and to help lifting the rock debris/gases out of the borehole</t>
-  </si>
-  <si>
-    <t>dust collector production, multicyclone</t>
-  </si>
-  <si>
-    <t>dust collector, multicyclone</t>
-  </si>
-  <si>
-    <t>No estimate availabe, technology not yet described, first estimate, known data gap. Cyclone separator for initial gas treatment/particulate removal: infrastructure to separate the solid particles from the gas stream. Gas and dust control infrastructure which includes the following: gas scrubber (wet or dry), gas analysis equipment, containment and storage systems</t>
-  </si>
-  <si>
-    <t>No estimate availabe, technology not yet described, first estimate, known data gap. Energy use per m3 gas treated: depends on gas volume, composition, required treatment level</t>
-  </si>
-  <si>
-    <t>diesel, burned in diesel-electric generating set, 10MW, for oil and gas extraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diesel generator used as backup in case of electricity shortage. It is assumed that 2% of the total energy needs to come from the diesel generator. I assume an efficiency of 40% for the generator. </t>
-  </si>
-  <si>
-    <t>market for drilling waste</t>
-  </si>
-  <si>
-    <t>drilling waste</t>
-  </si>
-  <si>
-    <t>Approximation for the treatment of the drilling waste. The dataset has been created for onshore and offshore oil/gas wells, thus the type of rock to be treated is (partially) different from the rock extracted for an AGS. The market for waste models a transport of 3 km with an unspecified lorry and 25 km with a freight train. This seems very little, but is left unchanged and generic, as the drilling sites and treatment sites of the AGS wells are still unknown.</t>
-  </si>
-  <si>
-    <t>drilling rig construction, plasma pulse geothermal drilling</t>
-  </si>
-  <si>
-    <t>drilling rig, plasma pulse geothermal drilling</t>
-  </si>
-  <si>
-    <t>Installation of the drilling place</t>
-  </si>
-  <si>
-    <t>Occupation, construction site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservative estimate only taking into account the actual drilling/completion/logging time, but neglecting any preparation and clean-up time. </t>
-  </si>
-  <si>
-    <t>Rough assumption. Assumption that the total drilling rig weight is 500 tons, and rough assumption that 70 weight% of it is made from steel, 30% from electronics. Assumption that the drilling rig can be reused for 50 drilling places.</t>
-  </si>
-  <si>
-    <t>market for electronics, for control units</t>
-  </si>
-  <si>
-    <t>electronics, for control units</t>
-  </si>
-  <si>
-    <t>market for reinforcing steel</t>
-  </si>
-  <si>
-    <t>reinforcing steel</t>
-  </si>
-  <si>
-    <t>market for sand</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>Reinforced concrete can be separated into cement/steel at the end of life. Assumption: 90% recycling rate for the reinforced steel.</t>
-  </si>
-  <si>
-    <t>market for inert waste, for final disposal</t>
-  </si>
-  <si>
-    <t>inert waste, for final disposal</t>
-  </si>
-  <si>
-    <t>market for electronics scrap from control units</t>
-  </si>
-  <si>
-    <t>electronics scrap from control units</t>
-  </si>
-  <si>
-    <t>well closure, advanced geothermal system, 12000 m vertical 42000 m horizontal, per m, without cement</t>
-  </si>
-  <si>
-    <t>well, closed, advanced geothermal system, 12000 m vertical 42000 m horizontal, per m, without cement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing and backfilling of the well to prevent unwanted events and seal the borehole against fluids. </t>
-  </si>
-  <si>
-    <t>neglected. Placeholder</t>
-  </si>
-  <si>
-    <t>geothermal power plant construction, advanced geothermal system, CO2 working fluid, ca. 1.9 MW</t>
-  </si>
-  <si>
-    <t>geothermal power plant, advanced geothermal system, CO2 working fluid, ca. 1.9 MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of the surface plant. Based on assumptions. Consists of the surface plant with turbines, generators, pumps, electricity infrastructure; the pipes, pumps, land occupation. Further, the well and the CO2 are included in this dataset. </t>
-  </si>
-  <si>
-    <t>heat and power co-generation unit construction, 1MWel, 6.4 MWth</t>
-  </si>
-  <si>
-    <t>heat and power co-generation unit, 1MWel, 6.4MWth</t>
-  </si>
-  <si>
-    <t>surface plant. Approximated with a CHP plant, organic rankine cycle, 1 Mwel 6.4 MWth. Built for modelling deep geothermal power plants.</t>
-  </si>
-  <si>
-    <t>Placeholder for pipes</t>
-  </si>
-  <si>
-    <t>Plain estimate. The building area is ca. 500 m2. Assumed that the surroundings take an additional 500 m2.</t>
-  </si>
-  <si>
-    <t>electricity production, advanced geothermal system plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity production with a hypothetical ags system. Maintenance and operation is neglected. </t>
-  </si>
-  <si>
-    <t>Reinjections of lost CO2. Assumed to be 5% of the total iniatial mass over the whole life.</t>
-  </si>
-  <si>
-    <t>well construction, plasma pulse geothermal drilling, advanced geothermal system, 12000 m vertical 42000 m horizontal, per m, without electricity, steel, cement, water, drilling rig</t>
-  </si>
-  <si>
-    <t>well, constructed, plasma pulse geothermal drilling, advanced geothermal system, 12000 m vertical 42000 m horizontal, per m, without electricity, steel, cement, water, drilling rig</t>
-  </si>
-  <si>
-    <t>No estimation of the waste to be treated taken out from the well</t>
-  </si>
-  <si>
-    <t>geothermal power plant construction, advanced geothermal system, CO2 working fluid, ca. 1.9 MW, without CO2 and well</t>
-  </si>
-  <si>
-    <t>geothermal power plant, advanced geothermal system, CO2 working fluid, ca. 1.9 MW, without CO2 and well</t>
-  </si>
-  <si>
-    <t>aegis_additional_inventories</t>
+    <t>ecoinvent-3.10.1-cutoff</t>
+  </si>
+  <si>
+    <t>Cement consumption for casing, cement slurry. No losses of cement slurry during the filling is accounted for, as it is assumed that the solid granite rock does not have significant geological empty spaces as it may occur in looser sedimentary rock.</t>
+  </si>
+  <si>
+    <t>Water consumption for casing, cement slurry. Water can be potable water, or surface water/groundwater which is tested for minerals/pollutants before use. Not all drilling places may have access to surface/groundwater! I use tap water as a proxy to at least account for some transport/conditioning of the water. No losses of cement slurry during the filling is accounted for, as it is assumed that the solid granite rock does not have significant geological empty spaces as it may occur in looser sedimentary rock.</t>
+  </si>
+  <si>
+    <t>well construction, plasma pulse geothermal drilling, advanced geothermal system, 42000 m horizontal, per m</t>
+  </si>
+  <si>
+    <t>well, constructed, plasma pulse geothermal drilling, advanced geothermal system, 42000 m horizontal, per m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of a horizontal well with plasma pulse geothermal drilling technology. The vertical depth is 6 km for 1 production well and 1 injection well each, and the horizontal loop length is 42 km. PPGD is assumed to not require drilling mud (and thus no additives like bentonite etc.), and is dry (i.e. does not require water). 
+This dataset is based on little technological knowledge on PPGD as this is a technology which doesn't exist yet. It neglects the removal and eventual treatment of substances from the well drilling, e.g. CO2 from carbonate rocks, metal oxides, trace elements, solid residues; in case of wet scrubbers: slurry with dissolved minerals/suspended particles; radioactive materials; water use for cooling or dust suppression; dust collection/gas flow control. No assumptions on the exchange rate of the PPGD equipment in the borehole could be taken. </t>
+  </si>
+  <si>
+    <t>geothermal power plant construction, advanced geothermal system, CO2 working fluid, ca. 1.9 MW, plasma pulse drilling</t>
+  </si>
+  <si>
+    <t>geothermal power plant, advanced geothermal system, CO2 working fluid, ca. 1.9 MW, plasma pulse drilling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of the surface plant. Based on assumptions. Consists of the surface plant with HEX (geothermal fluid to working fluid of ORC system),  ORC system (evaporator HEX, turbine, generator, condenser, pump), cooling system; the pipes, pumps, land occupation. Further, the well and the CO2 are included in this dataset. </t>
+  </si>
+  <si>
+    <t>surface plant. Approximated very roughly with a CHP plant, organic rankine cycle, 1 Mwel 6.4 MWth. Built for modelling deep geothermal power plants. Assumed lifetime is 30 years.</t>
+  </si>
+  <si>
+    <t>Placeholder for pipes and pumps. Estimated lifetime: 50 years (corrosion, scaling, thermal stress - rather lower lifetime)</t>
+  </si>
+  <si>
+    <t>ecoinvent-3.10.1-biosphere</t>
   </si>
 </sst>
 </file>
@@ -2750,27 +2748,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O2802"/>
+  <dimension ref="A1:O2778"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2483" workbookViewId="0">
-      <selection activeCell="A2774" sqref="A2774"/>
+    <sheetView tabSelected="1" topLeftCell="A2710" workbookViewId="0">
+      <selection activeCell="A2715" sqref="A2715"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2778,14 +2776,14 @@
         <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="47"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2863,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3035,7 +3033,7 @@
     <row r="21" spans="1:8">
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +3106,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -5837,7 +5835,7 @@
       </c>
       <c r="J171" s="51"/>
     </row>
-    <row r="173" spans="1:10" ht="15.6">
+    <row r="173" spans="1:10" ht="15.75">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.6">
+    <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -8638,7 +8636,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="324" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="324" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A324" s="49" t="s">
         <v>0</v>
       </c>
@@ -8703,7 +8701,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="332" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="332" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A332" s="49" t="s">
         <v>10</v>
       </c>
@@ -11454,7 +11452,7 @@
       </c>
     </row>
     <row r="474" spans="1:8" s="50" customFormat="1"/>
-    <row r="475" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="475" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A475" s="49" t="s">
         <v>0</v>
       </c>
@@ -11519,7 +11517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="483" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="483" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A483" s="49" t="s">
         <v>10</v>
       </c>
@@ -14270,7 +14268,7 @@
       </c>
     </row>
     <row r="625" spans="1:8" s="50" customFormat="1"/>
-    <row r="626" spans="1:8" ht="15.6">
+    <row r="626" spans="1:8" ht="15.75">
       <c r="A626" s="1" t="s">
         <v>0</v>
       </c>
@@ -14343,7 +14341,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="15.6">
+    <row r="635" spans="1:8" ht="15.75">
       <c r="A635" s="1" t="s">
         <v>10</v>
       </c>
@@ -17084,7 +17082,7 @@
       </c>
       <c r="G782" s="51"/>
     </row>
-    <row r="784" spans="1:7" ht="15.6">
+    <row r="784" spans="1:7" ht="15.75">
       <c r="A784" s="1" t="s">
         <v>0</v>
       </c>
@@ -17157,7 +17155,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="793" spans="1:8" ht="15.6">
+    <row r="793" spans="1:8" ht="15.75">
       <c r="A793" s="1" t="s">
         <v>10</v>
       </c>
@@ -19901,7 +19899,7 @@
     <row r="941" spans="1:7" s="50" customFormat="1">
       <c r="B941" s="52"/>
     </row>
-    <row r="942" spans="1:7" s="50" customFormat="1" ht="15.6">
+    <row r="942" spans="1:7" s="50" customFormat="1" ht="15.75">
       <c r="A942" s="49" t="s">
         <v>0</v>
       </c>
@@ -19966,7 +19964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="950" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="950" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A950" s="49" t="s">
         <v>10</v>
       </c>
@@ -22726,7 +22724,7 @@
       <c r="G1098" s="51"/>
     </row>
     <row r="1099" spans="1:7" s="50" customFormat="1"/>
-    <row r="1100" spans="1:7" s="50" customFormat="1" ht="15.6">
+    <row r="1100" spans="1:7" s="50" customFormat="1" ht="15.75">
       <c r="A1100" s="49" t="s">
         <v>0</v>
       </c>
@@ -22791,7 +22789,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1108" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1108" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1108" s="49" t="s">
         <v>10</v>
       </c>
@@ -25551,7 +25549,7 @@
       <c r="G1256" s="51"/>
     </row>
     <row r="1257" spans="1:7" s="50" customFormat="1"/>
-    <row r="1258" spans="1:7" s="50" customFormat="1" ht="15.6">
+    <row r="1258" spans="1:7" s="50" customFormat="1" ht="15.75">
       <c r="A1258" s="49" t="s">
         <v>0</v>
       </c>
@@ -25607,7 +25605,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="1265" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1265" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1265" s="49" t="s">
         <v>10</v>
       </c>
@@ -25689,7 +25687,7 @@
       </c>
     </row>
     <row r="1269" spans="1:8" s="50" customFormat="1"/>
-    <row r="1270" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1270" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1270" s="49" t="s">
         <v>0</v>
       </c>
@@ -25745,7 +25743,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1277" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1277" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1277" s="49" t="s">
         <v>10</v>
       </c>
@@ -25827,7 +25825,7 @@
       </c>
     </row>
     <row r="1281" spans="1:8" s="50" customFormat="1"/>
-    <row r="1282" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1282" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1282" s="49" t="s">
         <v>0</v>
       </c>
@@ -25883,7 +25881,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1289" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1289" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1289" s="49" t="s">
         <v>10</v>
       </c>
@@ -25965,7 +25963,7 @@
       </c>
     </row>
     <row r="1293" spans="1:8" s="50" customFormat="1"/>
-    <row r="1294" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1294" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1294" s="49" t="s">
         <v>0</v>
       </c>
@@ -26021,7 +26019,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1301" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1301" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1301" s="49" t="s">
         <v>10</v>
       </c>
@@ -26103,7 +26101,7 @@
       </c>
     </row>
     <row r="1305" spans="1:8" s="50" customFormat="1"/>
-    <row r="1306" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1306" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1306" s="49" t="s">
         <v>0</v>
       </c>
@@ -26159,7 +26157,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1313" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1313" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1313" s="49" t="s">
         <v>10</v>
       </c>
@@ -26241,7 +26239,7 @@
       </c>
     </row>
     <row r="1317" spans="1:8" s="50" customFormat="1"/>
-    <row r="1318" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1318" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1318" s="49" t="s">
         <v>0</v>
       </c>
@@ -26297,7 +26295,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1325" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1325" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1325" s="49" t="s">
         <v>10</v>
       </c>
@@ -26379,7 +26377,7 @@
       </c>
     </row>
     <row r="1329" spans="1:8" s="50" customFormat="1"/>
-    <row r="1330" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1330" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1330" s="49" t="s">
         <v>0</v>
       </c>
@@ -26435,7 +26433,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1337" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1337" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1337" s="49" t="s">
         <v>10</v>
       </c>
@@ -26516,7 +26514,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="1343" spans="1:8" s="50" customFormat="1" ht="15.6">
+    <row r="1343" spans="1:8" s="50" customFormat="1" ht="15.75">
       <c r="A1343" s="49" t="s">
         <v>0</v>
       </c>
@@ -26572,7 +26570,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1350" spans="1:12" s="50" customFormat="1" ht="15.6">
+    <row r="1350" spans="1:12" s="50" customFormat="1" ht="15.75">
       <c r="A1350" s="49" t="s">
         <v>10</v>
       </c>
@@ -26668,7 +26666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1356" spans="1:12" ht="15.6">
+    <row r="1356" spans="1:12" ht="15.75">
       <c r="A1356" s="1" t="s">
         <v>0</v>
       </c>
@@ -26770,7 +26768,7 @@
       <c r="K1361" s="53"/>
       <c r="L1361" s="53"/>
     </row>
-    <row r="1362" spans="1:12" ht="15.6">
+    <row r="1362" spans="1:12" ht="15.75">
       <c r="A1362" s="1" t="s">
         <v>10</v>
       </c>
@@ -26872,7 +26870,7 @@
     <row r="1367" spans="1:12">
       <c r="A1367" s="53"/>
     </row>
-    <row r="1368" spans="1:12" ht="15.6">
+    <row r="1368" spans="1:12" ht="15.75">
       <c r="A1368" s="1" t="s">
         <v>0</v>
       </c>
@@ -26974,7 +26972,7 @@
       <c r="K1373" s="53"/>
       <c r="L1373" s="53"/>
     </row>
-    <row r="1374" spans="1:12" ht="15.6">
+    <row r="1374" spans="1:12" ht="15.75">
       <c r="A1374" s="1" t="s">
         <v>10</v>
       </c>
@@ -27090,7 +27088,7 @@
       <c r="A1379" s="53"/>
       <c r="B1379"/>
     </row>
-    <row r="1380" spans="1:12" ht="15.6">
+    <row r="1380" spans="1:12" ht="15.75">
       <c r="A1380" s="1" t="s">
         <v>0</v>
       </c>
@@ -27192,7 +27190,7 @@
       <c r="K1385" s="53"/>
       <c r="L1385" s="53"/>
     </row>
-    <row r="1386" spans="1:12" ht="15.6">
+    <row r="1386" spans="1:12" ht="15.75">
       <c r="A1386" s="1" t="s">
         <v>10</v>
       </c>
@@ -27291,7 +27289,7 @@
       <c r="A1390" s="53"/>
       <c r="B1390"/>
     </row>
-    <row r="1391" spans="1:12" ht="15.6">
+    <row r="1391" spans="1:12" ht="15.75">
       <c r="A1391" s="1" t="s">
         <v>0</v>
       </c>
@@ -27393,7 +27391,7 @@
       <c r="K1396" s="53"/>
       <c r="L1396" s="53"/>
     </row>
-    <row r="1397" spans="1:12" ht="15.6">
+    <row r="1397" spans="1:12" ht="15.75">
       <c r="A1397" s="1" t="s">
         <v>10</v>
       </c>
@@ -27488,7 +27486,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1402" spans="1:12" ht="15.6">
+    <row r="1402" spans="1:12" ht="15.75">
       <c r="A1402" s="1" t="s">
         <v>0</v>
       </c>
@@ -27584,7 +27582,7 @@
       <c r="K1407" s="53"/>
       <c r="L1407" s="53"/>
     </row>
-    <row r="1408" spans="1:12" ht="15.6">
+    <row r="1408" spans="1:12" ht="15.75">
       <c r="A1408" s="1" t="s">
         <v>10</v>
       </c>
@@ -27678,7 +27676,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1413" spans="1:12" ht="15.6">
+    <row r="1413" spans="1:12" ht="15.75">
       <c r="A1413" s="1" t="s">
         <v>0</v>
       </c>
@@ -27774,7 +27772,7 @@
       <c r="K1418" s="53"/>
       <c r="L1418" s="53"/>
     </row>
-    <row r="1419" spans="1:12" ht="15.6">
+    <row r="1419" spans="1:12" ht="15.75">
       <c r="A1419" s="1" t="s">
         <v>10</v>
       </c>
@@ -27871,7 +27869,7 @@
     <row r="1423" spans="1:12">
       <c r="B1423"/>
     </row>
-    <row r="1424" spans="1:12" ht="15.6">
+    <row r="1424" spans="1:12" ht="15.75">
       <c r="A1424" s="1" t="s">
         <v>0</v>
       </c>
@@ -27967,7 +27965,7 @@
       <c r="K1429" s="53"/>
       <c r="L1429" s="53"/>
     </row>
-    <row r="1430" spans="1:12" ht="15.6">
+    <row r="1430" spans="1:12" ht="15.75">
       <c r="A1430" s="1" t="s">
         <v>10</v>
       </c>
@@ -28063,7 +28061,7 @@
     <row r="1434" spans="1:12">
       <c r="B1434"/>
     </row>
-    <row r="1435" spans="1:12" ht="15.6">
+    <row r="1435" spans="1:12" ht="15.75">
       <c r="A1435" s="1" t="s">
         <v>0</v>
       </c>
@@ -28159,7 +28157,7 @@
       <c r="K1440" s="53"/>
       <c r="L1440" s="53"/>
     </row>
-    <row r="1441" spans="1:12" ht="15.6">
+    <row r="1441" spans="1:12" ht="15.75">
       <c r="A1441" s="1" t="s">
         <v>10</v>
       </c>
@@ -28256,7 +28254,7 @@
     <row r="1445" spans="1:12">
       <c r="B1445"/>
     </row>
-    <row r="1446" spans="1:12" ht="15.6">
+    <row r="1446" spans="1:12" ht="15.75">
       <c r="A1446" s="1" t="s">
         <v>0</v>
       </c>
@@ -28352,7 +28350,7 @@
       <c r="K1451" s="53"/>
       <c r="L1451" s="53"/>
     </row>
-    <row r="1452" spans="1:12" ht="15.6">
+    <row r="1452" spans="1:12" ht="15.75">
       <c r="A1452" s="1" t="s">
         <v>10</v>
       </c>
@@ -28449,7 +28447,7 @@
     <row r="1456" spans="1:12">
       <c r="B1456"/>
     </row>
-    <row r="1457" spans="1:12" ht="15.6">
+    <row r="1457" spans="1:12" ht="15.75">
       <c r="A1457" s="1" t="s">
         <v>0</v>
       </c>
@@ -28545,7 +28543,7 @@
       <c r="K1462" s="53"/>
       <c r="L1462" s="53"/>
     </row>
-    <row r="1463" spans="1:12" ht="15.6">
+    <row r="1463" spans="1:12" ht="15.75">
       <c r="A1463" s="1" t="s">
         <v>10</v>
       </c>
@@ -28642,7 +28640,7 @@
     <row r="1467" spans="1:12">
       <c r="B1467"/>
     </row>
-    <row r="1468" spans="1:12" ht="15.6">
+    <row r="1468" spans="1:12" ht="15.75">
       <c r="A1468" s="1" t="s">
         <v>0</v>
       </c>
@@ -28738,7 +28736,7 @@
       <c r="K1473" s="53"/>
       <c r="L1473" s="53"/>
     </row>
-    <row r="1474" spans="1:12" ht="15.6">
+    <row r="1474" spans="1:12" ht="15.75">
       <c r="A1474" s="1" t="s">
         <v>10</v>
       </c>
@@ -28835,7 +28833,7 @@
     <row r="1478" spans="1:12">
       <c r="B1478"/>
     </row>
-    <row r="1479" spans="1:12" ht="15.6">
+    <row r="1479" spans="1:12" ht="15.75">
       <c r="A1479" s="1" t="s">
         <v>0</v>
       </c>
@@ -28931,7 +28929,7 @@
       <c r="K1484" s="53"/>
       <c r="L1484" s="53"/>
     </row>
-    <row r="1485" spans="1:12" ht="15.6">
+    <row r="1485" spans="1:12" ht="15.75">
       <c r="A1485" s="1" t="s">
         <v>10</v>
       </c>
@@ -29028,7 +29026,7 @@
     <row r="1489" spans="1:12">
       <c r="B1489"/>
     </row>
-    <row r="1490" spans="1:12" ht="15.6">
+    <row r="1490" spans="1:12" ht="15.75">
       <c r="A1490" s="1" t="s">
         <v>0</v>
       </c>
@@ -29124,7 +29122,7 @@
       <c r="K1495" s="53"/>
       <c r="L1495" s="53"/>
     </row>
-    <row r="1496" spans="1:12" ht="15.6">
+    <row r="1496" spans="1:12" ht="15.75">
       <c r="A1496" s="1" t="s">
         <v>10</v>
       </c>
@@ -29221,7 +29219,7 @@
     <row r="1500" spans="1:12">
       <c r="B1500"/>
     </row>
-    <row r="1501" spans="1:12" ht="15.6">
+    <row r="1501" spans="1:12" ht="15.75">
       <c r="A1501" s="1" t="s">
         <v>0</v>
       </c>
@@ -29317,7 +29315,7 @@
       <c r="K1506" s="53"/>
       <c r="L1506" s="53"/>
     </row>
-    <row r="1507" spans="1:12" ht="15.6">
+    <row r="1507" spans="1:12" ht="15.75">
       <c r="A1507" s="1" t="s">
         <v>10</v>
       </c>
@@ -29414,7 +29412,7 @@
     <row r="1511" spans="1:12">
       <c r="B1511"/>
     </row>
-    <row r="1512" spans="1:12" ht="15.6">
+    <row r="1512" spans="1:12" ht="15.75">
       <c r="A1512" s="1" t="s">
         <v>0</v>
       </c>
@@ -29510,7 +29508,7 @@
       <c r="K1517" s="53"/>
       <c r="L1517" s="53"/>
     </row>
-    <row r="1518" spans="1:12" ht="15.6">
+    <row r="1518" spans="1:12" ht="15.75">
       <c r="A1518" s="1" t="s">
         <v>10</v>
       </c>
@@ -29604,7 +29602,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1523" spans="1:12" ht="15.6">
+    <row r="1523" spans="1:12" ht="15.75">
       <c r="A1523" s="1" t="s">
         <v>0</v>
       </c>
@@ -29700,7 +29698,7 @@
       <c r="K1528" s="53"/>
       <c r="L1528" s="53"/>
     </row>
-    <row r="1529" spans="1:12" ht="15.6">
+    <row r="1529" spans="1:12" ht="15.75">
       <c r="A1529" s="1" t="s">
         <v>10</v>
       </c>
@@ -29794,7 +29792,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1534" spans="1:12" ht="15.6">
+    <row r="1534" spans="1:12" ht="15.75">
       <c r="A1534" s="1" t="s">
         <v>0</v>
       </c>
@@ -29890,7 +29888,7 @@
       <c r="K1539" s="53"/>
       <c r="L1539" s="53"/>
     </row>
-    <row r="1540" spans="1:12" ht="15.6">
+    <row r="1540" spans="1:12" ht="15.75">
       <c r="A1540" s="1" t="s">
         <v>10</v>
       </c>
@@ -29984,7 +29982,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1545" spans="1:12" ht="15.6">
+    <row r="1545" spans="1:12" ht="15.75">
       <c r="A1545" s="1" t="s">
         <v>0</v>
       </c>
@@ -30080,7 +30078,7 @@
       <c r="K1550" s="53"/>
       <c r="L1550" s="53"/>
     </row>
-    <row r="1551" spans="1:12" ht="15.6">
+    <row r="1551" spans="1:12" ht="15.75">
       <c r="A1551" s="1" t="s">
         <v>10</v>
       </c>
@@ -30177,7 +30175,7 @@
     <row r="1555" spans="1:12">
       <c r="B1555"/>
     </row>
-    <row r="1556" spans="1:12" ht="15.6">
+    <row r="1556" spans="1:12" ht="15.75">
       <c r="A1556" s="1" t="s">
         <v>0</v>
       </c>
@@ -30273,7 +30271,7 @@
       <c r="K1561" s="53"/>
       <c r="L1561" s="53"/>
     </row>
-    <row r="1562" spans="1:12" ht="15.6">
+    <row r="1562" spans="1:12" ht="15.75">
       <c r="A1562" s="1" t="s">
         <v>10</v>
       </c>
@@ -30384,7 +30382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1568" spans="1:12" ht="15.6">
+    <row r="1568" spans="1:12" ht="15.75">
       <c r="A1568" s="1" t="s">
         <v>0</v>
       </c>
@@ -30480,7 +30478,7 @@
       <c r="K1573" s="53"/>
       <c r="L1573" s="53"/>
     </row>
-    <row r="1574" spans="1:12" ht="15.6">
+    <row r="1574" spans="1:12" ht="15.75">
       <c r="A1574" s="1" t="s">
         <v>10</v>
       </c>
@@ -30577,7 +30575,7 @@
     <row r="1578" spans="1:12">
       <c r="B1578"/>
     </row>
-    <row r="1579" spans="1:12" ht="15.6">
+    <row r="1579" spans="1:12" ht="15.75">
       <c r="A1579" s="1" t="s">
         <v>0</v>
       </c>
@@ -30673,7 +30671,7 @@
       <c r="K1584" s="53"/>
       <c r="L1584" s="53"/>
     </row>
-    <row r="1585" spans="1:12" ht="15.6">
+    <row r="1585" spans="1:12" ht="15.75">
       <c r="A1585" s="1" t="s">
         <v>10</v>
       </c>
@@ -30770,7 +30768,7 @@
     <row r="1589" spans="1:12">
       <c r="B1589"/>
     </row>
-    <row r="1590" spans="1:12" ht="15.6">
+    <row r="1590" spans="1:12" ht="15.75">
       <c r="A1590" s="1" t="s">
         <v>0</v>
       </c>
@@ -30866,7 +30864,7 @@
       <c r="K1595" s="53"/>
       <c r="L1595" s="53"/>
     </row>
-    <row r="1596" spans="1:12" ht="15.6">
+    <row r="1596" spans="1:12" ht="15.75">
       <c r="A1596" s="1" t="s">
         <v>10</v>
       </c>
@@ -30963,7 +30961,7 @@
     <row r="1600" spans="1:12">
       <c r="B1600"/>
     </row>
-    <row r="1601" spans="1:15" ht="15.6">
+    <row r="1601" spans="1:15" ht="15.75">
       <c r="A1601" s="1" t="s">
         <v>0</v>
       </c>
@@ -31059,7 +31057,7 @@
       <c r="K1606" s="53"/>
       <c r="L1606" s="53"/>
     </row>
-    <row r="1607" spans="1:15" ht="15.6">
+    <row r="1607" spans="1:15" ht="15.75">
       <c r="A1607" s="1" t="s">
         <v>10</v>
       </c>
@@ -31192,7 +31190,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="1613" spans="1:15" s="55" customFormat="1" ht="15.6">
+    <row r="1613" spans="1:15" s="55" customFormat="1" ht="15.75">
       <c r="A1613" s="53" t="s">
         <v>491</v>
       </c>
@@ -31297,7 +31295,7 @@
       <c r="K1617" s="53"/>
       <c r="L1617" s="53"/>
     </row>
-    <row r="1618" spans="1:12" ht="15.6">
+    <row r="1618" spans="1:12" ht="15.75">
       <c r="A1618" s="1" t="s">
         <v>0</v>
       </c>
@@ -31399,7 +31397,7 @@
       <c r="K1623" s="53"/>
       <c r="L1623" s="53"/>
     </row>
-    <row r="1624" spans="1:12" ht="15.6">
+    <row r="1624" spans="1:12" ht="15.75">
       <c r="A1624" s="1" t="s">
         <v>10</v>
       </c>
@@ -31501,7 +31499,7 @@
     <row r="1629" spans="1:12">
       <c r="A1629" s="53"/>
     </row>
-    <row r="1630" spans="1:12" ht="15.6">
+    <row r="1630" spans="1:12" ht="15.75">
       <c r="A1630" s="1" t="s">
         <v>0</v>
       </c>
@@ -31603,7 +31601,7 @@
       <c r="K1635" s="53"/>
       <c r="L1635" s="53"/>
     </row>
-    <row r="1636" spans="1:12" ht="15.6">
+    <row r="1636" spans="1:12" ht="15.75">
       <c r="A1636" s="1" t="s">
         <v>10</v>
       </c>
@@ -31719,7 +31717,7 @@
       <c r="A1641" s="53"/>
       <c r="B1641"/>
     </row>
-    <row r="1642" spans="1:12" ht="15.6">
+    <row r="1642" spans="1:12" ht="15.75">
       <c r="A1642" s="1" t="s">
         <v>0</v>
       </c>
@@ -31821,7 +31819,7 @@
       <c r="K1647" s="53"/>
       <c r="L1647" s="53"/>
     </row>
-    <row r="1648" spans="1:12" ht="15.6">
+    <row r="1648" spans="1:12" ht="15.75">
       <c r="A1648" s="1" t="s">
         <v>10</v>
       </c>
@@ -31920,7 +31918,7 @@
       <c r="A1652" s="53"/>
       <c r="B1652"/>
     </row>
-    <row r="1653" spans="1:12" ht="15.6">
+    <row r="1653" spans="1:12" ht="15.75">
       <c r="A1653" s="1" t="s">
         <v>0</v>
       </c>
@@ -32022,7 +32020,7 @@
       <c r="K1658" s="53"/>
       <c r="L1658" s="53"/>
     </row>
-    <row r="1659" spans="1:12" ht="15.6">
+    <row r="1659" spans="1:12" ht="15.75">
       <c r="A1659" s="1" t="s">
         <v>10</v>
       </c>
@@ -32117,7 +32115,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="1664" spans="1:12" ht="15.6">
+    <row r="1664" spans="1:12" ht="15.75">
       <c r="A1664" s="1" t="s">
         <v>0</v>
       </c>
@@ -32213,7 +32211,7 @@
       <c r="K1669" s="53"/>
       <c r="L1669" s="53"/>
     </row>
-    <row r="1670" spans="1:12" ht="15.6">
+    <row r="1670" spans="1:12" ht="15.75">
       <c r="A1670" s="1" t="s">
         <v>10</v>
       </c>
@@ -32310,7 +32308,7 @@
     <row r="1674" spans="1:12">
       <c r="B1674"/>
     </row>
-    <row r="1675" spans="1:12" ht="15.6">
+    <row r="1675" spans="1:12" ht="15.75">
       <c r="A1675" s="1" t="s">
         <v>0</v>
       </c>
@@ -32406,7 +32404,7 @@
       <c r="K1680" s="53"/>
       <c r="L1680" s="53"/>
     </row>
-    <row r="1681" spans="1:12" ht="15.6">
+    <row r="1681" spans="1:12" ht="15.75">
       <c r="A1681" s="1" t="s">
         <v>10</v>
       </c>
@@ -32502,7 +32500,7 @@
     <row r="1685" spans="1:12">
       <c r="B1685"/>
     </row>
-    <row r="1686" spans="1:12" ht="15.6">
+    <row r="1686" spans="1:12" ht="15.75">
       <c r="A1686" s="1" t="s">
         <v>0</v>
       </c>
@@ -32598,7 +32596,7 @@
       <c r="K1691" s="53"/>
       <c r="L1691" s="53"/>
     </row>
-    <row r="1692" spans="1:12" ht="15.6">
+    <row r="1692" spans="1:12" ht="15.75">
       <c r="A1692" s="1" t="s">
         <v>10</v>
       </c>
@@ -32695,7 +32693,7 @@
     <row r="1696" spans="1:12">
       <c r="B1696"/>
     </row>
-    <row r="1697" spans="1:12" ht="15.6">
+    <row r="1697" spans="1:12" ht="15.75">
       <c r="A1697" s="1" t="s">
         <v>0</v>
       </c>
@@ -32791,7 +32789,7 @@
       <c r="K1702" s="53"/>
       <c r="L1702" s="53"/>
     </row>
-    <row r="1703" spans="1:12" ht="15.6">
+    <row r="1703" spans="1:12" ht="15.75">
       <c r="A1703" s="1" t="s">
         <v>10</v>
       </c>
@@ -32902,7 +32900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1709" spans="1:12" ht="15.6">
+    <row r="1709" spans="1:12" ht="15.75">
       <c r="A1709" s="1" t="s">
         <v>0</v>
       </c>
@@ -32998,7 +32996,7 @@
       <c r="K1714" s="53"/>
       <c r="L1714" s="53"/>
     </row>
-    <row r="1715" spans="1:12" ht="15.6">
+    <row r="1715" spans="1:12" ht="15.75">
       <c r="A1715" s="1" t="s">
         <v>10</v>
       </c>
@@ -33095,7 +33093,7 @@
     <row r="1719" spans="1:12">
       <c r="B1719"/>
     </row>
-    <row r="1720" spans="1:12" ht="15.6">
+    <row r="1720" spans="1:12" ht="15.75">
       <c r="A1720" s="1" t="s">
         <v>0</v>
       </c>
@@ -33191,7 +33189,7 @@
       <c r="K1725" s="53"/>
       <c r="L1725" s="53"/>
     </row>
-    <row r="1726" spans="1:12" ht="15.6">
+    <row r="1726" spans="1:12" ht="15.75">
       <c r="A1726" s="1" t="s">
         <v>10</v>
       </c>
@@ -33288,7 +33286,7 @@
     <row r="1730" spans="1:12">
       <c r="B1730"/>
     </row>
-    <row r="1731" spans="1:12" ht="15.6">
+    <row r="1731" spans="1:12" ht="15.75">
       <c r="A1731" s="1" t="s">
         <v>0</v>
       </c>
@@ -33384,7 +33382,7 @@
       <c r="K1736" s="53"/>
       <c r="L1736" s="53"/>
     </row>
-    <row r="1737" spans="1:12" ht="15.6">
+    <row r="1737" spans="1:12" ht="15.75">
       <c r="A1737" s="1" t="s">
         <v>10</v>
       </c>
@@ -33481,7 +33479,7 @@
     <row r="1741" spans="1:12">
       <c r="B1741"/>
     </row>
-    <row r="1742" spans="1:12" ht="15.6">
+    <row r="1742" spans="1:12" ht="15.75">
       <c r="A1742" s="1" t="s">
         <v>0</v>
       </c>
@@ -33577,7 +33575,7 @@
       <c r="K1747" s="53"/>
       <c r="L1747" s="53"/>
     </row>
-    <row r="1748" spans="1:12" ht="15.6">
+    <row r="1748" spans="1:12" ht="15.75">
       <c r="A1748" s="1" t="s">
         <v>10</v>
       </c>
@@ -33674,7 +33672,7 @@
     <row r="1753" spans="1:12">
       <c r="B1753"/>
     </row>
-    <row r="1754" spans="1:12" ht="15.6">
+    <row r="1754" spans="1:12" ht="15.75">
       <c r="A1754" s="1" t="s">
         <v>0</v>
       </c>
@@ -33776,7 +33774,7 @@
       <c r="K1759" s="53"/>
       <c r="L1759" s="53"/>
     </row>
-    <row r="1760" spans="1:12" ht="15.6">
+    <row r="1760" spans="1:12" ht="15.75">
       <c r="A1760" s="1" t="s">
         <v>10</v>
       </c>
@@ -34581,7 +34579,7 @@
       <c r="F1803" s="53"/>
       <c r="H1803" s="3"/>
     </row>
-    <row r="1804" spans="1:12" ht="15.6">
+    <row r="1804" spans="1:12" ht="15.75">
       <c r="A1804" s="1" t="s">
         <v>0</v>
       </c>
@@ -34683,7 +34681,7 @@
       <c r="K1809" s="53"/>
       <c r="L1809" s="53"/>
     </row>
-    <row r="1810" spans="1:12" ht="15.6">
+    <row r="1810" spans="1:12" ht="15.75">
       <c r="A1810" s="1" t="s">
         <v>10</v>
       </c>
@@ -35575,7 +35573,7 @@
     <row r="1858" spans="1:12">
       <c r="B1858"/>
     </row>
-    <row r="1859" spans="1:12" ht="15.6">
+    <row r="1859" spans="1:12" ht="15.75">
       <c r="A1859" s="1" t="s">
         <v>0</v>
       </c>
@@ -35693,7 +35691,7 @@
       <c r="K1865" s="53"/>
       <c r="L1865" s="53"/>
     </row>
-    <row r="1866" spans="1:12" ht="15.6">
+    <row r="1866" spans="1:12" ht="15.75">
       <c r="A1866" s="1" t="s">
         <v>10</v>
       </c>
@@ -36117,7 +36115,7 @@
     <row r="1884" spans="1:12">
       <c r="B1884"/>
     </row>
-    <row r="1885" spans="1:12" ht="15.6">
+    <row r="1885" spans="1:12" ht="15.75">
       <c r="A1885" s="1" t="s">
         <v>0</v>
       </c>
@@ -36237,7 +36235,7 @@
       <c r="K1891" s="53"/>
       <c r="L1891" s="53"/>
     </row>
-    <row r="1892" spans="1:12" ht="15.6">
+    <row r="1892" spans="1:12" ht="15.75">
       <c r="A1892" s="1" t="s">
         <v>10</v>
       </c>
@@ -36559,7 +36557,7 @@
     <row r="1902" spans="1:12">
       <c r="B1902"/>
     </row>
-    <row r="1903" spans="1:12" ht="15.6">
+    <row r="1903" spans="1:12" ht="15.75">
       <c r="A1903" s="1" t="s">
         <v>0</v>
       </c>
@@ -36616,7 +36614,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="1910" spans="1:12" ht="15.6">
+    <row r="1910" spans="1:12" ht="15.75">
       <c r="A1910" s="1" t="s">
         <v>10</v>
       </c>
@@ -36761,7 +36759,7 @@
     <row r="1917" spans="1:12">
       <c r="B1917"/>
     </row>
-    <row r="1918" spans="1:12" ht="15.6">
+    <row r="1918" spans="1:12" ht="15.75">
       <c r="A1918" s="1" t="s">
         <v>0</v>
       </c>
@@ -36881,7 +36879,7 @@
       <c r="K1924" s="53"/>
       <c r="L1924" s="53"/>
     </row>
-    <row r="1925" spans="1:15" ht="15.6">
+    <row r="1925" spans="1:15" ht="15.75">
       <c r="A1925" s="1" t="s">
         <v>10</v>
       </c>
@@ -36960,7 +36958,7 @@
       <c r="J1927" s="53"/>
       <c r="K1927" s="53"/>
     </row>
-    <row r="1928" spans="1:15" s="55" customFormat="1" ht="15.6">
+    <row r="1928" spans="1:15" s="55" customFormat="1" ht="15.75">
       <c r="A1928" s="53" t="s">
         <v>491</v>
       </c>
@@ -36985,7 +36983,7 @@
       <c r="M1928"/>
       <c r="O1928" s="56"/>
     </row>
-    <row r="1929" spans="1:15" s="55" customFormat="1" ht="15.6">
+    <row r="1929" spans="1:15" s="55" customFormat="1" ht="15.75">
       <c r="A1929" s="53" t="s">
         <v>334</v>
       </c>
@@ -37007,7 +37005,7 @@
       <c r="M1929"/>
       <c r="O1929" s="56"/>
     </row>
-    <row r="1930" spans="1:15" s="55" customFormat="1" ht="15.6">
+    <row r="1930" spans="1:15" s="55" customFormat="1" ht="15.75">
       <c r="A1930" s="53" t="s">
         <v>227</v>
       </c>
@@ -37226,7 +37224,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="1937" spans="1:11" ht="15.6">
+    <row r="1937" spans="1:11" ht="15.75">
       <c r="A1937" s="61" t="s">
         <v>387</v>
       </c>
@@ -37262,7 +37260,7 @@
         <v>1.8888888888888888E-4</v>
       </c>
     </row>
-    <row r="1939" spans="1:11" ht="15.6">
+    <row r="1939" spans="1:11" ht="15.75">
       <c r="A1939" s="1" t="s">
         <v>0</v>
       </c>
@@ -37326,7 +37324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1947" spans="1:11" ht="15.6">
+    <row r="1947" spans="1:11" ht="15.75">
       <c r="A1947" s="1" t="s">
         <v>10</v>
       </c>
@@ -38121,7 +38119,7 @@
       </c>
       <c r="H1990" s="3"/>
     </row>
-    <row r="1993" spans="1:8" ht="15.6">
+    <row r="1993" spans="1:8" ht="15.75">
       <c r="A1993" s="1" t="s">
         <v>0</v>
       </c>
@@ -38193,7 +38191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2002" spans="1:11" ht="15.6">
+    <row r="2002" spans="1:11" ht="15.75">
       <c r="A2002" s="1" t="s">
         <v>10</v>
       </c>
@@ -38592,7 +38590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2022" spans="1:10" ht="15.6">
+    <row r="2022" spans="1:10" ht="15.75">
       <c r="A2022" s="1" t="s">
         <v>0</v>
       </c>
@@ -38664,7 +38662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2031" spans="1:10" ht="15.6">
+    <row r="2031" spans="1:10" ht="15.75">
       <c r="A2031" s="1" t="s">
         <v>10</v>
       </c>
@@ -38961,7 +38959,7 @@
         <v>1.3661202185792362E-7</v>
       </c>
     </row>
-    <row r="2042" spans="1:10" ht="15.6">
+    <row r="2042" spans="1:10" ht="15.75">
       <c r="A2042" s="1" t="s">
         <v>0</v>
       </c>
@@ -39041,7 +39039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2052" spans="1:8" ht="15.6">
+    <row r="2052" spans="1:8" ht="15.75">
       <c r="A2052" s="1" t="s">
         <v>10</v>
       </c>
@@ -39180,7 +39178,7 @@
     <row r="2058" spans="1:8">
       <c r="B2058"/>
     </row>
-    <row r="2059" spans="1:8" ht="15.6">
+    <row r="2059" spans="1:8" ht="15.75">
       <c r="A2059" s="1" t="s">
         <v>0</v>
       </c>
@@ -39252,7 +39250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2068" spans="1:10" ht="15.6">
+    <row r="2068" spans="1:10" ht="15.75">
       <c r="A2068" s="1" t="s">
         <v>10</v>
       </c>
@@ -39313,7 +39311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2071" spans="1:10" ht="15.6">
+    <row r="2071" spans="1:10" ht="15.75">
       <c r="A2071" s="53" t="s">
         <v>491</v>
       </c>
@@ -39588,7 +39586,7 @@
     <row r="2079" spans="1:10">
       <c r="B2079"/>
     </row>
-    <row r="2080" spans="1:10" ht="15.6">
+    <row r="2080" spans="1:10" ht="15.75">
       <c r="A2080" s="1" t="s">
         <v>0</v>
       </c>
@@ -39660,7 +39658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2089" spans="1:10" ht="15.6">
+    <row r="2089" spans="1:10" ht="15.75">
       <c r="A2089" s="1" t="s">
         <v>10</v>
       </c>
@@ -39921,7 +39919,7 @@
         <v>2.0584795321637427E-5</v>
       </c>
     </row>
-    <row r="2099" spans="1:10" ht="15.6">
+    <row r="2099" spans="1:10" ht="15.75">
       <c r="A2099" s="1" t="s">
         <v>0</v>
       </c>
@@ -39961,7 +39959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2104" spans="1:10" ht="15.6">
+    <row r="2104" spans="1:10" ht="15.75">
       <c r="A2104" s="1" t="s">
         <v>10</v>
       </c>
@@ -40367,7 +40365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2133" spans="1:15" s="55" customFormat="1" ht="15.6">
+    <row r="2133" spans="1:15" s="55" customFormat="1" ht="15.75">
       <c r="A2133" s="55" t="s">
         <v>387</v>
       </c>
@@ -40407,7 +40405,7 @@
       </c>
       <c r="O2133" s="56"/>
     </row>
-    <row r="2134" spans="1:15" ht="15.6">
+    <row r="2134" spans="1:15" ht="15.75">
       <c r="A2134" t="s">
         <v>399</v>
       </c>
@@ -40446,7 +40444,7 @@
         <v>5.6666666666666657E-5</v>
       </c>
     </row>
-    <row r="2135" spans="1:15" ht="15.6">
+    <row r="2135" spans="1:15" ht="15.75">
       <c r="A2135" s="53" t="s">
         <v>491</v>
       </c>
@@ -40470,7 +40468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2136" spans="1:15" ht="15.6">
+    <row r="2136" spans="1:15" ht="15.75">
       <c r="A2136" t="s">
         <v>495</v>
       </c>
@@ -40506,7 +40504,7 @@
         <v>3.4781508885094539E-4</v>
       </c>
     </row>
-    <row r="2138" spans="1:15" ht="15.6">
+    <row r="2138" spans="1:15" ht="15.75">
       <c r="A2138" s="1" t="s">
         <v>0</v>
       </c>
@@ -40608,7 +40606,7 @@
       <c r="K2143" s="53"/>
       <c r="L2143" s="53"/>
     </row>
-    <row r="2144" spans="1:15" ht="15.6">
+    <row r="2144" spans="1:15" ht="15.75">
       <c r="A2144" s="1" t="s">
         <v>10</v>
       </c>
@@ -41441,7 +41439,7 @@
       </c>
       <c r="H2188" s="3"/>
     </row>
-    <row r="2190" spans="1:8" ht="15.6">
+    <row r="2190" spans="1:8" ht="15.75">
       <c r="A2190" s="1" t="s">
         <v>0</v>
       </c>
@@ -41513,7 +41511,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2199" spans="1:11" ht="15.6">
+    <row r="2199" spans="1:11" ht="15.75">
       <c r="A2199" s="1" t="s">
         <v>10</v>
       </c>
@@ -41554,7 +41552,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2201" spans="1:11" ht="15.6">
+    <row r="2201" spans="1:11" ht="15.75">
       <c r="A2201" s="64" t="s">
         <v>453</v>
       </c>
@@ -42254,7 +42252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2242" spans="1:11" ht="15.6">
+    <row r="2242" spans="1:11" ht="15.75">
       <c r="A2242" s="1" t="s">
         <v>0</v>
       </c>
@@ -42326,7 +42324,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2251" spans="1:11" ht="15.6">
+    <row r="2251" spans="1:11" ht="15.75">
       <c r="A2251" s="1" t="s">
         <v>10</v>
       </c>
@@ -42367,7 +42365,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2253" spans="1:11" ht="15.6">
+    <row r="2253" spans="1:11" ht="15.75">
       <c r="A2253" s="64" t="s">
         <v>456</v>
       </c>
@@ -42584,7 +42582,7 @@
     <row r="2259" spans="1:11">
       <c r="B2259"/>
     </row>
-    <row r="2260" spans="1:11" ht="15.6">
+    <row r="2260" spans="1:11" ht="15.75">
       <c r="A2260" s="1" t="s">
         <v>0</v>
       </c>
@@ -42656,7 +42654,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2269" spans="1:11" ht="15.6">
+    <row r="2269" spans="1:11" ht="15.75">
       <c r="A2269" s="1" t="s">
         <v>10</v>
       </c>
@@ -42697,7 +42695,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2271" spans="1:11" ht="15.6">
+    <row r="2271" spans="1:11" ht="15.75">
       <c r="A2271" s="64" t="s">
         <v>457</v>
       </c>
@@ -42723,7 +42721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2272" spans="1:11" ht="15.6">
+    <row r="2272" spans="1:11" ht="15.75">
       <c r="A2272" s="53" t="s">
         <v>491</v>
       </c>
@@ -42998,7 +42996,7 @@
     <row r="2280" spans="1:11">
       <c r="B2280"/>
     </row>
-    <row r="2282" spans="1:11" ht="15.6">
+    <row r="2282" spans="1:11" ht="15.75">
       <c r="A2282" s="1" t="s">
         <v>0</v>
       </c>
@@ -43070,7 +43068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2291" spans="1:11" ht="15.6">
+    <row r="2291" spans="1:11" ht="15.75">
       <c r="A2291" s="1" t="s">
         <v>10</v>
       </c>
@@ -43111,7 +43109,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2293" spans="1:11" ht="15.6">
+    <row r="2293" spans="1:11" ht="15.75">
       <c r="A2293" s="64" t="s">
         <v>458</v>
       </c>
@@ -43709,7 +43707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2322" spans="1:11" ht="15.6">
+    <row r="2322" spans="1:11" ht="15.75">
       <c r="A2322" s="1" t="s">
         <v>0</v>
       </c>
@@ -43765,7 +43763,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2329" spans="1:11" ht="15.6">
+    <row r="2329" spans="1:11" ht="15.75">
       <c r="A2329" s="1" t="s">
         <v>10</v>
       </c>
@@ -43806,7 +43804,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2331" spans="1:11" ht="15.6">
+    <row r="2331" spans="1:11" ht="15.75">
       <c r="A2331" s="64" t="str">
         <f>B2322</f>
         <v>electricity production, from photovoltaic panels</v>
@@ -43855,7 +43853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2334" spans="1:11" ht="15.6">
+    <row r="2334" spans="1:11" ht="15.75">
       <c r="A2334" s="1" t="s">
         <v>0</v>
       </c>
@@ -43911,7 +43909,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2341" spans="1:11" ht="15.6">
+    <row r="2341" spans="1:11" ht="15.75">
       <c r="A2341" s="1" t="s">
         <v>10</v>
       </c>
@@ -43952,7 +43950,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2343" spans="1:11" ht="15.6">
+    <row r="2343" spans="1:11" ht="15.75">
       <c r="A2343" s="64" t="str">
         <f>B2334</f>
         <v>electricity production, wind</v>
@@ -44001,7 +43999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2346" spans="1:11" ht="15.6">
+    <row r="2346" spans="1:11" ht="15.75">
       <c r="A2346" s="1" t="s">
         <v>0</v>
       </c>
@@ -44057,7 +44055,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2353" spans="1:11" ht="15.6">
+    <row r="2353" spans="1:11" ht="15.75">
       <c r="A2353" s="1" t="s">
         <v>10</v>
       </c>
@@ -44098,7 +44096,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2355" spans="1:11" ht="15.6">
+    <row r="2355" spans="1:11" ht="15.75">
       <c r="A2355" s="64" t="str">
         <f>B2346</f>
         <v>electricity production, from hydrogen fuel cell</v>
@@ -48672,7 +48670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2673" spans="1:11">
+    <row r="2673" spans="1:10">
       <c r="A2673" t="s">
         <v>11</v>
       </c>
@@ -48701,7 +48699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2674" spans="1:11">
+    <row r="2674" spans="1:10">
       <c r="A2674" t="s">
         <v>633</v>
       </c>
@@ -48724,7 +48722,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2675" spans="1:11">
+    <row r="2675" spans="1:10">
       <c r="A2675" t="s">
         <v>615</v>
       </c>
@@ -48750,7 +48748,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2676" spans="1:11">
+    <row r="2676" spans="1:10">
       <c r="A2676" t="s">
         <v>287</v>
       </c>
@@ -48776,12 +48774,12 @@
         <v>623</v>
       </c>
     </row>
-    <row r="2679" spans="1:11">
+    <row r="2679" spans="1:10">
       <c r="A2679" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2679" s="71" t="s">
-        <v>635</v>
+      <c r="B2679" s="70" t="s">
+        <v>680</v>
       </c>
       <c r="C2679" s="70"/>
       <c r="D2679" s="70"/>
@@ -48791,58 +48789,58 @@
       <c r="H2679" s="70"/>
       <c r="I2679" s="70"/>
       <c r="J2679" s="70"/>
-      <c r="K2679" s="70"/>
-    </row>
-    <row r="2680" spans="1:11">
+    </row>
+    <row r="2680" spans="1:10">
       <c r="A2680" t="s">
         <v>3</v>
       </c>
-      <c r="B2680" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2681" spans="1:11">
+      <c r="B2680" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:10">
       <c r="A2681" t="s">
         <v>6</v>
       </c>
-      <c r="B2681" s="3" t="s">
+      <c r="B2681" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="2682" spans="1:11">
+    <row r="2682" spans="1:10">
       <c r="A2682" t="s">
         <v>1</v>
       </c>
-      <c r="B2682" s="3" t="s">
+      <c r="B2682" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2683" spans="1:11">
+    <row r="2683" spans="1:10">
       <c r="A2683" t="s">
         <v>2</v>
       </c>
-      <c r="B2683" s="3">
+      <c r="B2683">
         <v>1</v>
       </c>
     </row>
-    <row r="2684" spans="1:11">
+    <row r="2684" spans="1:10">
       <c r="A2684" t="s">
         <v>9</v>
       </c>
-      <c r="B2684" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="2685" spans="1:11">
+      <c r="B2684" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:10">
       <c r="A2685" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2686" spans="1:11">
+      <c r="B2685"/>
+    </row>
+    <row r="2686" spans="1:10">
       <c r="A2686" t="s">
         <v>11</v>
       </c>
-      <c r="B2686" s="3" t="s">
+      <c r="B2686" t="s">
         <v>3</v>
       </c>
       <c r="C2686" t="s">
@@ -48867,12 +48865,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2687" spans="1:11">
+    <row r="2687" spans="1:10">
       <c r="A2687" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2687" s="3" t="s">
-        <v>636</v>
+        <v>680</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>681</v>
       </c>
       <c r="C2687" t="s">
         <v>331</v>
@@ -48884,43 +48882,43 @@
         <v>104</v>
       </c>
       <c r="F2687" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G2687" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2688" spans="1:11">
+    <row r="2688" spans="1:10">
       <c r="A2688" t="s">
-        <v>639</v>
-      </c>
-      <c r="B2688" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2688" t="s">
         <v>520</v>
       </c>
       <c r="C2688" t="s">
         <v>125</v>
       </c>
       <c r="D2688">
-        <v>187.46795061728392</v>
+        <v>131.99511111111113</v>
       </c>
       <c r="E2688" t="s">
         <v>104</v>
       </c>
       <c r="F2688" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2688" t="s">
         <v>18</v>
       </c>
       <c r="I2688" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2689" spans="1:9">
       <c r="A2689" t="s">
         <v>573</v>
       </c>
-      <c r="B2689" s="3" t="s">
+      <c r="B2689" t="s">
         <v>574</v>
       </c>
       <c r="C2689" t="s">
@@ -48933,21 +48931,21 @@
         <v>24</v>
       </c>
       <c r="F2689" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2689" t="s">
         <v>18</v>
       </c>
       <c r="I2689" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2690" spans="1:9">
       <c r="A2690" t="s">
-        <v>642</v>
-      </c>
-      <c r="B2690" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>640</v>
       </c>
       <c r="C2690" t="s">
         <v>7</v>
@@ -48959,20 +48957,20 @@
         <v>270</v>
       </c>
       <c r="F2690" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2690" t="s">
         <v>18</v>
       </c>
       <c r="I2690" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2691" spans="1:9">
       <c r="A2691" t="s">
         <v>541</v>
       </c>
-      <c r="B2691" s="3" t="s">
+      <c r="B2691" t="s">
         <v>542</v>
       </c>
       <c r="C2691" t="s">
@@ -48985,21 +48983,21 @@
         <v>104</v>
       </c>
       <c r="F2691" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2691" t="s">
         <v>18</v>
       </c>
       <c r="I2691" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2692" spans="1:9">
       <c r="A2692" t="s">
-        <v>646</v>
-      </c>
-      <c r="B2692" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>642</v>
       </c>
       <c r="C2692" t="s">
         <v>7</v>
@@ -49011,21 +49009,21 @@
         <v>103</v>
       </c>
       <c r="F2692" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2692" t="s">
         <v>18</v>
       </c>
       <c r="I2692" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2693" spans="1:9">
       <c r="A2693" t="s">
-        <v>649</v>
-      </c>
-      <c r="B2693" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>645</v>
       </c>
       <c r="C2693" t="s">
         <v>6</v>
@@ -49037,20 +49035,20 @@
         <v>104</v>
       </c>
       <c r="F2693" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2693" t="s">
         <v>18</v>
       </c>
       <c r="I2693" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2694" spans="1:9">
       <c r="A2694" t="s">
         <v>287</v>
       </c>
-      <c r="B2694" s="3" t="s">
+      <c r="B2694" t="s">
         <v>286</v>
       </c>
       <c r="C2694" t="s">
@@ -49063,73 +49061,73 @@
         <v>104</v>
       </c>
       <c r="F2694" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2694" t="s">
         <v>18</v>
       </c>
       <c r="I2694" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2695" spans="1:9">
       <c r="A2695" t="s">
-        <v>653</v>
-      </c>
-      <c r="B2695" s="3" t="s">
-        <v>653</v>
+        <v>648</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>648</v>
       </c>
       <c r="C2695" t="s">
         <v>17</v>
       </c>
       <c r="D2695">
-        <v>34.432888888888883</v>
+        <v>24.244000000000003</v>
       </c>
       <c r="E2695" t="s">
         <v>24</v>
       </c>
       <c r="F2695" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2695" t="s">
         <v>18</v>
       </c>
       <c r="I2695" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2696" spans="1:9">
       <c r="A2696" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2696" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>651</v>
       </c>
       <c r="C2696" t="s">
         <v>7</v>
       </c>
       <c r="D2696">
-        <v>-170.53803217336397</v>
+        <v>-256.42090325816093</v>
       </c>
       <c r="E2696" t="s">
         <v>104</v>
       </c>
       <c r="F2696" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="G2696" t="s">
         <v>18</v>
       </c>
       <c r="I2696" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2697" spans="1:9">
       <c r="A2697" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2697" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>654</v>
       </c>
       <c r="C2697" t="s">
         <v>6</v>
@@ -49141,41 +49139,47 @@
         <v>104</v>
       </c>
       <c r="F2697" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G2697" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="2698" spans="1:9">
+      <c r="B2698"/>
+    </row>
+    <row r="2699" spans="1:9">
+      <c r="B2699"/>
     </row>
     <row r="2700" spans="1:9">
       <c r="A2700" t="s">
         <v>0</v>
       </c>
-      <c r="B2700" s="3" t="s">
-        <v>658</v>
+      <c r="B2700" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="2701" spans="1:9">
       <c r="A2701" t="s">
         <v>3</v>
       </c>
-      <c r="B2701" s="3" t="s">
-        <v>659</v>
+      <c r="B2701" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="2702" spans="1:9">
       <c r="A2702" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2702" s="3" t="s">
-        <v>660</v>
+        <v>6</v>
+      </c>
+      <c r="B2702" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="2703" spans="1:9">
       <c r="A2703" t="s">
         <v>1</v>
       </c>
-      <c r="B2703" s="3" t="s">
+      <c r="B2703" t="s">
         <v>104</v>
       </c>
     </row>
@@ -49183,28 +49187,29 @@
       <c r="A2704" t="s">
         <v>2</v>
       </c>
-      <c r="B2704" s="3">
+      <c r="B2704">
         <v>1</v>
       </c>
     </row>
     <row r="2705" spans="1:9">
       <c r="A2705" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2705" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B2705" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="2706" spans="1:9">
       <c r="A2706" t="s">
         <v>10</v>
       </c>
+      <c r="B2706"/>
     </row>
     <row r="2707" spans="1:9">
       <c r="A2707" t="s">
         <v>11</v>
       </c>
-      <c r="B2707" s="3" t="s">
+      <c r="B2707" t="s">
         <v>3</v>
       </c>
       <c r="C2707" t="s">
@@ -49231,13 +49236,13 @@
     </row>
     <row r="2708" spans="1:9">
       <c r="A2708" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2708" s="3" t="s">
-        <v>659</v>
+        <v>686</v>
+      </c>
+      <c r="B2708" t="s">
+        <v>687</v>
       </c>
       <c r="C2708" t="s">
-        <v>6</v>
+        <v>331</v>
       </c>
       <c r="D2708">
         <v>1</v>
@@ -49246,7 +49251,7 @@
         <v>104</v>
       </c>
       <c r="F2708" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G2708" t="s">
         <v>15</v>
@@ -49254,403 +49259,386 @@
     </row>
     <row r="2709" spans="1:9">
       <c r="A2709" t="s">
-        <v>587</v>
+        <v>636</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>520</v>
       </c>
       <c r="C2709" t="s">
-        <v>586</v>
+        <v>125</v>
       </c>
       <c r="D2709">
-        <v>5000</v>
+        <v>196</v>
+      </c>
+      <c r="E2709" t="s">
+        <v>104</v>
       </c>
       <c r="F2709" t="s">
-        <v>537</v>
+        <v>683</v>
       </c>
       <c r="G2709" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2709" t="s">
-        <v>584</v>
+        <v>18</v>
+      </c>
+      <c r="I2709" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="2710" spans="1:9">
       <c r="A2710" t="s">
-        <v>585</v>
+        <v>648</v>
+      </c>
+      <c r="B2710" t="s">
+        <v>648</v>
       </c>
       <c r="C2710" t="s">
-        <v>586</v>
+        <v>17</v>
       </c>
       <c r="D2710">
-        <v>5000</v>
+        <v>36</v>
+      </c>
+      <c r="E2710" t="s">
+        <v>24</v>
       </c>
       <c r="F2710" t="s">
-        <v>537</v>
+        <v>683</v>
       </c>
       <c r="G2710" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2710" t="s">
-        <v>584</v>
+        <v>18</v>
+      </c>
+      <c r="I2710" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="2711" spans="1:9">
       <c r="A2711" t="s">
-        <v>661</v>
+        <v>650</v>
+      </c>
+      <c r="B2711" t="s">
+        <v>651</v>
       </c>
       <c r="C2711" t="s">
-        <v>583</v>
+        <v>7</v>
       </c>
       <c r="D2711">
-        <v>2320.5859969558596</v>
+        <v>-57.802655678047067</v>
+      </c>
+      <c r="E2711" t="s">
+        <v>104</v>
       </c>
       <c r="F2711" t="s">
-        <v>537</v>
+        <v>683</v>
       </c>
       <c r="G2711" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2711" t="s">
-        <v>584</v>
+        <v>18</v>
       </c>
       <c r="I2711" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2712" spans="1:9">
-      <c r="A2712" t="s">
-        <v>573</v>
-      </c>
-      <c r="B2712" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C2712" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2712">
-        <v>7000</v>
-      </c>
-      <c r="E2712" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2712" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2712" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2712" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="2713" spans="1:9">
-      <c r="A2713" t="s">
-        <v>664</v>
-      </c>
-      <c r="B2713" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C2713" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2713">
-        <v>3000</v>
-      </c>
-      <c r="E2713" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2713" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2713" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2713" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2714" spans="1:9">
       <c r="A2714" t="s">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="B2714" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C2714" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2714">
-        <v>1000000</v>
-      </c>
-      <c r="E2714" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2714" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2714" t="s">
-        <v>18</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2715" spans="1:9">
       <c r="A2715" t="s">
-        <v>666</v>
+        <v>3</v>
       </c>
       <c r="B2715" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C2715" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2715">
-        <v>300000</v>
-      </c>
-      <c r="E2715" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2715" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2715" t="s">
-        <v>18</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2716" spans="1:9">
       <c r="A2716" t="s">
-        <v>541</v>
+        <v>9</v>
       </c>
       <c r="B2716" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C2716" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2716">
-        <v>500000</v>
-      </c>
-      <c r="E2716" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2716" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2716" t="s">
-        <v>18</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2717" spans="1:9">
       <c r="A2717" t="s">
-        <v>668</v>
+        <v>1</v>
       </c>
       <c r="B2717" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C2717" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2717">
-        <v>4500000</v>
-      </c>
-      <c r="E2717" t="s">
         <v>104</v>
-      </c>
-      <c r="F2717" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2717" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2718" spans="1:9">
       <c r="A2718" t="s">
-        <v>576</v>
-      </c>
-      <c r="B2718" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C2718" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2718">
-        <v>-270000</v>
-      </c>
-      <c r="E2718" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2718" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2718" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2718" t="s">
-        <v>670</v>
+        <v>2</v>
+      </c>
+      <c r="B2718" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="2719" spans="1:9">
       <c r="A2719" t="s">
-        <v>671</v>
+        <v>6</v>
       </c>
       <c r="B2719" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C2719" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2719">
-        <v>-5400000</v>
-      </c>
-      <c r="E2719" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2719" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2719" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2720" spans="1:9">
       <c r="A2720" t="s">
-        <v>673</v>
-      </c>
-      <c r="B2720" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C2720" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2720">
-        <v>-3000</v>
-      </c>
-      <c r="E2720" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2720" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2720" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:9">
+      <c r="A2721" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2721" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2721" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2721" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2721" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2721" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2721" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2721" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2721" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2722" spans="1:9">
       <c r="A2722" t="s">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="B2722" s="3" t="s">
-        <v>675</v>
+        <v>654</v>
+      </c>
+      <c r="C2722" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2722">
+        <v>1</v>
+      </c>
+      <c r="E2722" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2722" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2722" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2723" spans="1:9">
       <c r="A2723" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2723" s="3" t="s">
-        <v>676</v>
+        <v>587</v>
+      </c>
+      <c r="C2723" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2723">
+        <v>5000</v>
+      </c>
+      <c r="F2723" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2723" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2723" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="2724" spans="1:9">
       <c r="A2724" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2724" s="3" t="s">
-        <v>677</v>
+        <v>585</v>
+      </c>
+      <c r="C2724" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2724">
+        <v>5000</v>
+      </c>
+      <c r="F2724" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2724" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2724" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="2725" spans="1:9">
       <c r="A2725" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2725" s="3" t="s">
-        <v>104</v>
+        <v>656</v>
+      </c>
+      <c r="C2725" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2725">
+        <v>2320.5859969558596</v>
+      </c>
+      <c r="F2725" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2725" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2725" t="s">
+        <v>584</v>
+      </c>
+      <c r="I2725" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="2726" spans="1:9">
       <c r="A2726" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2726" s="3">
-        <v>1</v>
+        <v>573</v>
+      </c>
+      <c r="B2726" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2726" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2726">
+        <v>7000</v>
+      </c>
+      <c r="E2726" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2726" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2726" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2726" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="2727" spans="1:9">
       <c r="A2727" t="s">
-        <v>6</v>
+        <v>659</v>
       </c>
       <c r="B2727" s="3" t="s">
-        <v>331</v>
+        <v>660</v>
+      </c>
+      <c r="C2727" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2727">
+        <v>3000</v>
+      </c>
+      <c r="E2727" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2727" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2727" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2727" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="2728" spans="1:9">
       <c r="A2728" t="s">
-        <v>10</v>
+        <v>639</v>
+      </c>
+      <c r="B2728" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2728" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2728">
+        <v>1000000</v>
+      </c>
+      <c r="E2728" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2728" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2728" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2729" spans="1:9">
       <c r="A2729" t="s">
-        <v>11</v>
+        <v>661</v>
       </c>
       <c r="B2729" s="3" t="s">
-        <v>3</v>
+        <v>662</v>
       </c>
       <c r="C2729" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2729" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D2729">
+        <v>300000</v>
       </c>
       <c r="E2729" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F2729" t="s">
-        <v>116</v>
+        <v>518</v>
       </c>
       <c r="G2729" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2729" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2729" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2730" spans="1:9">
       <c r="A2730" t="s">
-        <v>675</v>
+        <v>541</v>
       </c>
       <c r="B2730" s="3" t="s">
-        <v>676</v>
+        <v>542</v>
       </c>
       <c r="C2730" t="s">
-        <v>331</v>
+        <v>7</v>
       </c>
       <c r="D2730">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="E2730" t="s">
         <v>104</v>
       </c>
       <c r="F2730" t="s">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="G2730" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2731" spans="1:9">
       <c r="A2731" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="B2731" s="3" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="C2731" t="s">
         <v>7</v>
       </c>
       <c r="D2731">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="E2731" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="F2731" t="s">
         <v>518</v>
@@ -49658,445 +49646,449 @@
       <c r="G2731" t="s">
         <v>18</v>
       </c>
-      <c r="I2731" t="s">
-        <v>678</v>
+    </row>
+    <row r="2732" spans="1:9">
+      <c r="A2732" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2732" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2732" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2732">
+        <v>-270000</v>
+      </c>
+      <c r="E2732" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2732" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2732" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2732" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:9">
+      <c r="A2733" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2733" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2733" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2733">
+        <v>-5400000</v>
+      </c>
+      <c r="E2733" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2733" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2733" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2734" spans="1:9">
       <c r="A2734" t="s">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="B2734" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="2735" spans="1:9">
-      <c r="A2735" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2735" s="3" t="s">
-        <v>680</v>
+        <v>669</v>
+      </c>
+      <c r="C2734" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2734">
+        <v>-3000</v>
+      </c>
+      <c r="E2734" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2734" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2734" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2736" spans="1:9">
       <c r="A2736" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2736" s="3" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2737" spans="1:9">
       <c r="A2737" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2737" s="3" t="s">
-        <v>104</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2738" spans="1:9">
       <c r="A2738" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2738" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B2738" s="3" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="2739" spans="1:9">
       <c r="A2739" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2739" s="3" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2740" spans="1:9">
       <c r="A2740" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B2740" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="2741" spans="1:9">
       <c r="A2741" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2741" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2741" t="s">
         <v>6</v>
-      </c>
-      <c r="D2741" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2741" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2741" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2741" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2741" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2741" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2742" spans="1:9">
       <c r="A2742" t="s">
-        <v>679</v>
-      </c>
-      <c r="B2742" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2742" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2742">
-        <v>1</v>
-      </c>
-      <c r="E2742" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2742" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2742" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2743" spans="1:9">
       <c r="A2743" t="s">
-        <v>682</v>
+        <v>11</v>
       </c>
       <c r="B2743" s="3" t="s">
-        <v>683</v>
+        <v>3</v>
       </c>
       <c r="C2743" t="s">
         <v>6</v>
       </c>
-      <c r="D2743">
+      <c r="D2743" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2743" t="s">
         <v>1</v>
       </c>
-      <c r="E2743" t="s">
-        <v>104</v>
-      </c>
       <c r="F2743" t="s">
-        <v>518</v>
+        <v>116</v>
       </c>
       <c r="G2743" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="H2743" t="s">
+        <v>13</v>
       </c>
       <c r="I2743" t="s">
-        <v>684</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2744" spans="1:9">
       <c r="A2744" t="s">
-        <v>573</v>
+        <v>670</v>
       </c>
       <c r="B2744" s="3" t="s">
-        <v>574</v>
+        <v>671</v>
       </c>
       <c r="C2744" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2744">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2744" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F2744" t="s">
-        <v>518</v>
+        <v>635</v>
       </c>
       <c r="G2744" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2744" t="s">
-        <v>685</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2745" spans="1:9">
       <c r="A2745" t="s">
-        <v>587</v>
+        <v>639</v>
+      </c>
+      <c r="B2745" s="3" t="s">
+        <v>640</v>
       </c>
       <c r="C2745" t="s">
-        <v>586</v>
+        <v>7</v>
       </c>
       <c r="D2745">
-        <v>500</v>
+        <v>51580.525353860619</v>
+      </c>
+      <c r="E2745" t="s">
+        <v>270</v>
       </c>
       <c r="F2745" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="G2745" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2745" t="s">
-        <v>584</v>
-      </c>
-      <c r="I2745" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2746" spans="1:9">
-      <c r="A2746" t="s">
-        <v>585</v>
-      </c>
-      <c r="C2746" t="s">
-        <v>586</v>
-      </c>
-      <c r="D2746">
-        <v>500</v>
-      </c>
-      <c r="F2746" t="s">
-        <v>537</v>
-      </c>
-      <c r="G2746" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2746" t="s">
-        <v>584</v>
-      </c>
-      <c r="I2746" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2747" spans="1:9">
-      <c r="A2747" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2747" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2747">
-        <v>15000</v>
-      </c>
-      <c r="F2747" t="s">
-        <v>537</v>
-      </c>
-      <c r="G2747" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2747" t="s">
-        <v>584</v>
-      </c>
-      <c r="I2747" t="s">
-        <v>686</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2748" spans="1:9">
       <c r="A2748" t="s">
-        <v>620</v>
-      </c>
-      <c r="B2748" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C2748" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2748">
-        <v>543977.71433816536</v>
-      </c>
-      <c r="E2748" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2748" t="s">
-        <v>512</v>
-      </c>
-      <c r="G2748" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="2749" spans="1:9">
       <c r="A2749" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2749" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C2749" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2749">
-        <v>54000</v>
-      </c>
-      <c r="E2749" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2749" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2749" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="2750" spans="1:9">
       <c r="A2750" t="s">
-        <v>675</v>
-      </c>
-      <c r="B2750" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C2750" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2750">
+        <v>9</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:9">
+      <c r="A2751" t="s">
         <v>1</v>
       </c>
-      <c r="E2750" t="s">
+      <c r="B2751" t="s">
         <v>104</v>
-      </c>
-      <c r="F2750" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2750" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2752" spans="1:9">
       <c r="A2752" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2752" s="3" t="s">
-        <v>687</v>
+        <v>2</v>
+      </c>
+      <c r="B2752">
+        <v>1</v>
       </c>
     </row>
     <row r="2753" spans="1:9">
       <c r="A2753" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2753" s="3" t="s">
-        <v>145</v>
+        <v>6</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2754" spans="1:9">
       <c r="A2754" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2754" s="3" t="s">
-        <v>688</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B2754"/>
     </row>
     <row r="2755" spans="1:9">
       <c r="A2755" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2755" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2755" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2755" t="s">
         <v>1</v>
       </c>
-      <c r="B2755" s="3" t="s">
-        <v>104</v>
+      <c r="F2755" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2755" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2755" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2755" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2756" spans="1:9">
       <c r="A2756" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2756" s="3">
+        <v>689</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2756" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2756">
         <v>1</v>
+      </c>
+      <c r="E2756" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2756" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2756" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2757" spans="1:9">
       <c r="A2757" t="s">
+        <v>673</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2757" t="s">
         <v>6</v>
       </c>
-      <c r="B2757" s="3" t="s">
-        <v>125</v>
+      <c r="D2757">
+        <v>2</v>
+      </c>
+      <c r="E2757" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2757" t="s">
+        <v>683</v>
+      </c>
+      <c r="G2757" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2757" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="2758" spans="1:9">
       <c r="A2758" t="s">
-        <v>10</v>
+        <v>573</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2758" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2758">
+        <v>0</v>
+      </c>
+      <c r="E2758" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2758" t="s">
+        <v>683</v>
+      </c>
+      <c r="G2758" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2758" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="2759" spans="1:9">
       <c r="A2759" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2759" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="B2759"/>
       <c r="C2759" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2759" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2759" t="s">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="D2759">
+        <v>500</v>
       </c>
       <c r="F2759" t="s">
-        <v>116</v>
+        <v>694</v>
       </c>
       <c r="G2759" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H2759" t="s">
-        <v>13</v>
+        <v>584</v>
       </c>
       <c r="I2759" t="s">
-        <v>9</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2760" spans="1:9">
       <c r="A2760" t="s">
-        <v>687</v>
-      </c>
-      <c r="B2760" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="B2760"/>
       <c r="C2760" t="s">
-        <v>125</v>
+        <v>586</v>
       </c>
       <c r="D2760">
-        <v>1</v>
-      </c>
-      <c r="E2760" t="s">
-        <v>104</v>
+        <v>500</v>
       </c>
       <c r="F2760" t="s">
-        <v>638</v>
+        <v>694</v>
       </c>
       <c r="G2760" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="H2760" t="s">
+        <v>584</v>
+      </c>
+      <c r="I2760" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="2761" spans="1:9">
       <c r="A2761" t="s">
-        <v>679</v>
-      </c>
-      <c r="B2761" s="3" t="s">
-        <v>680</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B2761"/>
       <c r="C2761" t="s">
-        <v>6</v>
+        <v>583</v>
       </c>
       <c r="D2761">
-        <v>2.2420257462296523E-9</v>
-      </c>
-      <c r="E2761" t="s">
-        <v>104</v>
+        <v>15000</v>
       </c>
       <c r="F2761" t="s">
-        <v>638</v>
+        <v>694</v>
       </c>
       <c r="G2761" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="H2761" t="s">
+        <v>584</v>
+      </c>
+      <c r="I2761" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="2762" spans="1:9">
       <c r="A2762" t="s">
         <v>620</v>
       </c>
-      <c r="B2762" s="3" t="s">
+      <c r="B2762" t="s">
         <v>621</v>
       </c>
       <c r="C2762" t="s">
         <v>7</v>
       </c>
       <c r="D2762">
-        <v>6.0980602046066296E-5</v>
+        <v>543977.71433816536</v>
       </c>
       <c r="E2762" t="s">
         <v>104</v>
@@ -50107,48 +50099,90 @@
       <c r="G2762" t="s">
         <v>18</v>
       </c>
-      <c r="I2762" t="s">
-        <v>689</v>
+    </row>
+    <row r="2763" spans="1:9">
+      <c r="A2763" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2763" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2763">
+        <v>12000</v>
+      </c>
+      <c r="E2763" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2763" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2763" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:9">
+      <c r="A2764" t="s">
+        <v>686</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2764" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2764">
+        <v>42000</v>
+      </c>
+      <c r="E2764" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2764" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2764" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2765" spans="1:9">
       <c r="A2765" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2765" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="2766" spans="1:9">
-      <c r="A2766" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2766" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="2767" spans="1:9">
-      <c r="A2767" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2765" t="s">
         <v>6</v>
       </c>
-      <c r="B2767" s="3" t="s">
-        <v>331</v>
+      <c r="D2765">
+        <v>1</v>
+      </c>
+      <c r="E2765" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2765" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2765" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2768" spans="1:9">
       <c r="A2768" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2768" s="3" t="s">
-        <v>104</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2769" spans="1:9">
       <c r="A2769" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2769" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2769" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2770" spans="1:9">
@@ -50156,616 +50190,137 @@
         <v>9</v>
       </c>
       <c r="B2770" s="3" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2771" spans="1:9">
       <c r="A2771" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B2771" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2772" spans="1:9">
       <c r="A2772" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2772" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2772" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2772" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2772" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2772" s="3">
         <v>1</v>
-      </c>
-      <c r="F2772" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2772" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2772" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2772" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2773" spans="1:9">
       <c r="A2773" t="s">
-        <v>690</v>
+        <v>6</v>
       </c>
       <c r="B2773" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C2773" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2773">
-        <v>1</v>
-      </c>
-      <c r="E2773" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2773" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2773" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2774" spans="1:9">
       <c r="A2774" t="s">
-        <v>639</v>
-      </c>
-      <c r="B2774" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C2774" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2774">
-        <v>0</v>
-      </c>
-      <c r="E2774" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2774" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2774" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2774" t="s">
-        <v>640</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2775" spans="1:9">
       <c r="A2775" t="s">
-        <v>573</v>
+        <v>11</v>
       </c>
       <c r="B2775" s="3" t="s">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="C2775" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2775">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D2775" t="s">
+        <v>12</v>
       </c>
       <c r="E2775" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F2775" t="s">
-        <v>518</v>
+        <v>116</v>
       </c>
       <c r="G2775" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="H2775" t="s">
+        <v>13</v>
       </c>
       <c r="I2775" t="s">
-        <v>641</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2776" spans="1:9">
       <c r="A2776" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="B2776" s="3" t="s">
-        <v>643</v>
+        <v>145</v>
       </c>
       <c r="C2776" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D2776">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2776" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="F2776" t="s">
-        <v>518</v>
+        <v>635</v>
       </c>
       <c r="G2776" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2776" t="s">
-        <v>644</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2777" spans="1:9">
       <c r="A2777" t="s">
-        <v>541</v>
+        <v>689</v>
       </c>
       <c r="B2777" s="3" t="s">
-        <v>542</v>
+        <v>690</v>
       </c>
       <c r="C2777" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2777">
-        <v>0</v>
+        <v>1.1210128731148261E-9</v>
       </c>
       <c r="E2777" t="s">
         <v>104</v>
       </c>
       <c r="F2777" t="s">
-        <v>518</v>
+        <v>635</v>
       </c>
       <c r="G2777" t="s">
         <v>18</v>
       </c>
-      <c r="I2777" t="s">
-        <v>645</v>
-      </c>
     </row>
     <row r="2778" spans="1:9">
       <c r="A2778" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="B2778" s="3" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="C2778" t="s">
         <v>7</v>
       </c>
       <c r="D2778">
-        <v>0</v>
+        <v>3.0490301023033148E-5</v>
       </c>
       <c r="E2778" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2778" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G2778" t="s">
         <v>18</v>
       </c>
       <c r="I2778" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="2779" spans="1:9">
-      <c r="A2779" t="s">
-        <v>649</v>
-      </c>
-      <c r="B2779" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C2779" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2779">
-        <v>0</v>
-      </c>
-      <c r="E2779" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2779" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2779" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2779" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="2780" spans="1:9">
-      <c r="A2780" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2780" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2780" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2780">
-        <v>0</v>
-      </c>
-      <c r="E2780" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2780" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2780" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2780" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="2781" spans="1:9">
-      <c r="A2781" t="s">
-        <v>653</v>
-      </c>
-      <c r="B2781" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C2781" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2781">
-        <v>34.432888888888883</v>
-      </c>
-      <c r="E2781" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2781" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2781" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2781" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="2782" spans="1:9">
-      <c r="A2782" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2782" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C2782" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2782">
-        <v>-170.53803217336397</v>
-      </c>
-      <c r="E2782" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2782" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2782" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2782" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="2783" spans="1:9">
-      <c r="A2783" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2783" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C2783" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2783">
-        <v>0</v>
-      </c>
-      <c r="E2783" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2783" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2783" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2786" spans="1:9">
-      <c r="A2786" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2786" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="2787" spans="1:9">
-      <c r="A2787" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2787" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="2788" spans="1:9">
-      <c r="A2788" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2788" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="2789" spans="1:9">
-      <c r="A2789" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2789" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2790" spans="1:9">
-      <c r="A2790" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2790" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2791" spans="1:9">
-      <c r="A2791" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2791" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2792" spans="1:9">
-      <c r="A2792" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2793" spans="1:9">
-      <c r="A2793" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2793" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2793" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2793" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2793" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2793" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2793" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2793" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2793" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2794" spans="1:9">
-      <c r="A2794" t="s">
-        <v>693</v>
-      </c>
-      <c r="B2794" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C2794" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2794">
-        <v>1</v>
-      </c>
-      <c r="E2794" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2794" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2794" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2795" spans="1:9">
-      <c r="A2795" t="s">
-        <v>682</v>
-      </c>
-      <c r="B2795" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C2795" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2795">
-        <v>1</v>
-      </c>
-      <c r="E2795" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2795" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2795" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2795" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2796" spans="1:9">
-      <c r="A2796" t="s">
-        <v>573</v>
-      </c>
-      <c r="B2796" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C2796" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2796">
-        <v>0</v>
-      </c>
-      <c r="E2796" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2796" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2796" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2796" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="2797" spans="1:9">
-      <c r="A2797" t="s">
-        <v>587</v>
-      </c>
-      <c r="C2797" t="s">
-        <v>586</v>
-      </c>
-      <c r="D2797">
-        <v>500</v>
-      </c>
-      <c r="F2797" t="s">
-        <v>537</v>
-      </c>
-      <c r="G2797" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2797" t="s">
-        <v>584</v>
-      </c>
-      <c r="I2797" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2798" spans="1:9">
-      <c r="A2798" t="s">
-        <v>585</v>
-      </c>
-      <c r="C2798" t="s">
-        <v>586</v>
-      </c>
-      <c r="D2798">
-        <v>500</v>
-      </c>
-      <c r="F2798" t="s">
-        <v>537</v>
-      </c>
-      <c r="G2798" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2798" t="s">
-        <v>584</v>
-      </c>
-      <c r="I2798" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2799" spans="1:9">
-      <c r="A2799" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2799" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2799">
-        <v>15000</v>
-      </c>
-      <c r="F2799" t="s">
-        <v>537</v>
-      </c>
-      <c r="G2799" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2799" t="s">
-        <v>584</v>
-      </c>
-      <c r="I2799" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2800" spans="1:9">
-      <c r="A2800" t="s">
-        <v>620</v>
-      </c>
-      <c r="B2800" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C2800" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2800">
-        <v>0</v>
-      </c>
-      <c r="E2800" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2800" t="s">
-        <v>512</v>
-      </c>
-      <c r="G2800" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2801" spans="1:7">
-      <c r="A2801" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2801" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C2801" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2801">
-        <v>0</v>
-      </c>
-      <c r="E2801" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2801" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2801" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2802" spans="1:7">
-      <c r="A2802" t="s">
-        <v>675</v>
-      </c>
-      <c r="B2802" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C2802" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2802">
-        <v>1</v>
-      </c>
-      <c r="E2802" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2802" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2802" t="s">
-        <v>18</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -50781,14 +50336,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
